--- a/documentation/archive/Products_menu/Products_menu/Products_menu.xlsx
+++ b/documentation/archive/Products_menu/Products_menu/Products_menu.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="352" documentId="11_C1970188B7C271F9EE3B2E646EF8EE45DA87364E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D30B1B-CB64-4BBF-8572-9E78AC7411E9}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\MLNSD-master\Documentation\Products_menu\Products_menu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A25BAB-1565-404A-8A45-A7D061F593FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +366,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -394,12 +400,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,22 +729,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" customWidth="1"/>
-    <col min="7" max="7" width="118.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.265625" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" customWidth="1"/>
+    <col min="6" max="6" width="52.1328125" customWidth="1"/>
+    <col min="7" max="7" width="118.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -755,667 +765,739 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>3000</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="4"/>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>4000</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>5000</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>3000</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>4000</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>5000</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>3000</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>4000</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>5000</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>6000</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="C18" s="2" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>7000</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>8000</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>3000</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="2" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
+      <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>4000</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>5000</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="5"/>
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>2400</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="5"/>
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>2400</v>
       </c>
       <c r="F28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="5"/>
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>2500</v>
       </c>
       <c r="F29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="5"/>
       <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>2400</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="5"/>
+      <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>2400</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="5"/>
       <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>2500</v>
       </c>
       <c r="F34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="5"/>
       <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>8500</v>
       </c>
       <c r="F37" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="C38" s="2" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>8500</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
       <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>8500</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
       <c r="C40" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>7500</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="C43" s="2" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>7500</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>7500</v>
       </c>
       <c r="F44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="5"/>
       <c r="C45" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>8500</v>
       </c>
       <c r="F47" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="C48" s="2" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+      <c r="C48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>8500</v>
       </c>
       <c r="F48" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="5"/>
       <c r="C49" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>8500</v>
       </c>
       <c r="F49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="5"/>
       <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>8500</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D52" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>8500</v>
       </c>
       <c r="F52" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="C53" s="2" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="5"/>
+      <c r="C53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>8500</v>
       </c>
       <c r="F53" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="5"/>
       <c r="C54" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>8500</v>
       </c>
       <c r="F54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="5"/>
       <c r="C55" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>8500</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>3800</v>
       </c>
       <c r="F57" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="C58" s="2" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="5"/>
+      <c r="C58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>3800</v>
       </c>
       <c r="F58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="5"/>
       <c r="C59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>3800</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="5"/>
       <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>3800</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>65</v>
       </c>
@@ -1428,47 +1510,53 @@
       <c r="D62" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>3200</v>
       </c>
       <c r="F62" t="s">
         <v>68</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="5"/>
       <c r="C63" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>4800</v>
       </c>
       <c r="F63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="5"/>
       <c r="C64" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>5600</v>
       </c>
       <c r="F64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="5"/>
       <c r="C65" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>75</v>
       </c>
@@ -1481,53 +1569,59 @@
       <c r="D67" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>2800</v>
       </c>
       <c r="F67" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="5"/>
       <c r="C68" t="s">
         <v>70</v>
       </c>
       <c r="D68" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>4200</v>
       </c>
       <c r="F68" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="5"/>
       <c r="C69" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>4800</v>
       </c>
       <c r="F69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="5"/>
       <c r="C70" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
         <v>81</v>
       </c>
@@ -1540,47 +1634,53 @@
       <c r="D72" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>3800</v>
       </c>
       <c r="F72" t="s">
         <v>68</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="6"/>
       <c r="C73" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>5200</v>
       </c>
       <c r="F73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="6"/>
       <c r="C74" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>5800</v>
       </c>
       <c r="F74" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="6"/>
       <c r="C75" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>86</v>
       </c>
@@ -1593,63 +1693,86 @@
       <c r="D77" t="s">
         <v>83</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>1500</v>
       </c>
       <c r="F77" t="s">
         <v>89</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="5"/>
       <c r="C78" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>1650</v>
       </c>
       <c r="F78" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="5"/>
       <c r="C79" t="s">
         <v>92</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>1800</v>
       </c>
       <c r="F79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="5"/>
       <c r="C80" t="s">
         <v>94</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>1950</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="5"/>
       <c r="C81" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="5"/>
       <c r="C82" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>2250</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0A3DEE63-F2F6-4AD7-AE80-1139EA3CF312}"/>
     <hyperlink ref="G7" r:id="rId2" xr:uid="{09600A7F-0E72-47D8-9023-D0AE49C5A35D}"/>
@@ -1678,6 +1801,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1ab46aa-4e63-48d8-a315-16c1f2d7c6c2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="74294220-e8b9-4fe7-8bb1-72bea3759816" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005809F1F210BAA040A145296C92009194" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3579ebf1ff13dec8989a6bcb9824457b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1ab46aa-4e63-48d8-a315-16c1f2d7c6c2" xmlns:ns3="74294220-e8b9-4fe7-8bb1-72bea3759816" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e0dc751487746d7cfa7feb498da22cb" ns2:_="" ns3:_="">
     <xsd:import namespace="c1ab46aa-4e63-48d8-a315-16c1f2d7c6c2"/>
@@ -1894,34 +2037,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1ab46aa-4e63-48d8-a315-16c1f2d7c6c2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="74294220-e8b9-4fe7-8bb1-72bea3759816" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4384F121-B073-424E-8F82-848098A111E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C4E6748-5AE5-492B-B979-8B6EE043CEFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1ab46aa-4e63-48d8-a315-16c1f2d7c6c2"/>
+    <ds:schemaRef ds:uri="74294220-e8b9-4fe7-8bb1-72bea3759816"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5870BF7-3000-4314-B122-0F099E52D7C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5870BF7-3000-4314-B122-0F099E52D7C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C4E6748-5AE5-492B-B979-8B6EE043CEFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4384F121-B073-424E-8F82-848098A111E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1ab46aa-4e63-48d8-a315-16c1f2d7c6c2"/>
+    <ds:schemaRef ds:uri="74294220-e8b9-4fe7-8bb1-72bea3759816"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>